--- a/users_list.xlsx
+++ b/users_list.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T211"/>
+  <dimension ref="A1:T311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,10 +443,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Время регистрации (utc)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Количество запросов</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
@@ -476,197 +480,247 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11-09-2023 16:16</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>53</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>973547185</t>
+          <t>592771703</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>@ozerovvvv</t>
+          <t>@Vladimir_Alekhin_RealEstate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15-09-2023 12:22</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>22</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>389929933</t>
+          <t>973547185</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>@two_percent</t>
+          <t>@ozerovvvv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11-09-2023 15:49</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>18</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>106311934</t>
+          <t>5630066357</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>@ana_cayman</t>
+          <t>@lilia_dubai</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13-09-2023 12:01</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>592771703</t>
+          <t>389929933</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>@Vladimir_Alekhin_RealEstate</t>
+          <t>@two_percent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15-09-2023 09:58</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>15</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:49</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>683726148</t>
+          <t>106311934</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>@Tatitati1998</t>
+          <t>@ana_cayman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14-09-2023 12:31</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>14</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>655183563</t>
+          <t>5967611471</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>@Burkovskii</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12-09-2023 17:59</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5967611471</t>
+          <t>356158015</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@miknaty</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13-09-2023 11:18</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>13</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>05:38</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5630066357</t>
+          <t>655183563</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>@lilia_dubai</t>
+          <t>@Burkovskii</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11-09-2023 17:50</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>13</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17:59</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>473367906</t>
+          <t>683726148</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Tatitati1998</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15-09-2023 16:34</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>11</v>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5808643495</t>
+          <t>473367906</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -676,51 +730,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14-09-2023 10:45</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>179750874</t>
+          <t>627288703</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>@Mark_Twen_910</t>
+          <t>@Artashes111</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13-09-2023 11:14</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>627288703</t>
+          <t>5808643495</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>@Artashes111</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11-09-2023 18:02</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -736,877 +805,1097 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17-09-2023 05:20</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>05:20</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>770444048</t>
+          <t>1677144377</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>@RevParfums_Sasha</t>
+          <t>@Filippbakushin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12-09-2023 20:31</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>9</v>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>972031659</t>
+          <t>179750874</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>@AidanaDXB</t>
+          <t>@Mark_Twen_910</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18-09-2023 10:41</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>189198994</t>
+          <t>770444048</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>@AndrewUser</t>
+          <t>@RevParfums_Sasha</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12-09-2023 17:21</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>393001572</t>
+          <t>703433503</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Shmarlie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13-09-2023 11:47</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>7</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>04:14</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>543773161</t>
+          <t>972031659</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>@Natalyvorob</t>
+          <t>@AidanaDXB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12-09-2023 08:25</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>7</v>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5836999918</t>
+          <t>189198994</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>@igrazhdankin_whitewill</t>
+          <t>@AndrewUser</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13-09-2023 11:33</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>7</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1070912601</t>
+          <t>264583321</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>@babayka_0_0</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12-09-2023 18:06</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>7</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>150995228</t>
+          <t>1070912601</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>@arnold_tesla</t>
+          <t>@babayka_0_0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12-09-2023 21:00</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>6</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>610782087</t>
+          <t>5836999918</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>@a_ilina1</t>
+          <t>@igrazhdankin_whitewill</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12-09-2023 20:14</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>6</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95979972</t>
+          <t>620505</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>@sergeperev</t>
+          <t>@Cescha</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13-09-2023 09:39</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>6</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20:34</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1677144377</t>
+          <t>506421058</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>@Filippbakushin</t>
+          <t>@idontcareunow</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14-09-2023 10:27</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>6</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>983136539</t>
+          <t>543773161</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>@LukLux</t>
+          <t>@Natalyvorob</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24-09-2023 06:57</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>6</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>703433503</t>
+          <t>393001572</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>@Shmarlie</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13-09-2023 04:14</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>6</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>360987048</t>
+          <t>983136539</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>@anton_burzhuy</t>
+          <t>@LukLux</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11-09-2023 18:30</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+          <t>24.09.2023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>06:57</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1419229490</t>
+          <t>6132213578</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>@hkader</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13-09-2023 20:15</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+          <t>30.09.2023</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14:01</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1701221987</t>
+          <t>95979972</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>@hornsofmoses</t>
+          <t>@sergeperev</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12-09-2023 15:43</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>09:39</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>321641237</t>
+          <t>445405628</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>@darkhaev_dubai</t>
+          <t>@nikitamoscow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12-09-2023 15:56</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>5</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>366491072</t>
+          <t>1070433968</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>@btwluvu</t>
+          <t>@LasstalleHoffnungfahren</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13-09-2023 11:32</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>5</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>05:23</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>590137452</t>
+          <t>360987048</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>@nadya_vzakone</t>
+          <t>@anton_burzhuy</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18-09-2023 17:41</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6434386693</t>
+          <t>735926441</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@DKK77</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16-09-2023 07:49</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>5</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5526274914</t>
+          <t>610782087</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>@GetHome_Dubai</t>
+          <t>@a_ilina1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12-09-2023 03:44</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>999396575</t>
+          <t>1701221987</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>@Jfp001</t>
+          <t>@hornsofmoses</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13-09-2023 06:28</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15:43</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5977533400</t>
+          <t>150995228</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>@DAwhitewill</t>
+          <t>@arnold_tesla</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13-09-2023 11:29</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>5</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>282712679</t>
+          <t>1419229490</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>@Kos_Kolmakov</t>
+          <t>@hkader</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12-09-2023 21:28</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>4</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>631802006</t>
+          <t>590137452</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@nadya_vzakone</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12-09-2023 17:20</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>4</v>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5501253226</t>
+          <t>652661373</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>@showmeuae</t>
+          <t>@anvaryoutube</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12-09-2023 16:03</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>4</v>
+          <t>30.09.2023</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12:29</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>735926441</t>
+          <t>5344938628</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>@DKK77</t>
+          <t>@AlexRealEstate1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12-09-2023 17:11</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>4</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6279145454</t>
+          <t>347269916</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Maxpropertyguy</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11-09-2023 17:01</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>4</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>994533674</t>
+          <t>5526274914</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@GetHome_Dubai</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13-09-2023 03:46</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>03:44</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5786414391</t>
+          <t>321641237</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>@mvtulkin_whitewill</t>
+          <t>@darkhaev_dubai</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13-09-2023 11:42</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>4</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15:56</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1074046659</t>
+          <t>5461484573</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>@danyHaxyu</t>
+          <t>@vv_advisor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12-09-2023 17:40</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1091842607</t>
+          <t>366491072</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@btwluvu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12-09-2023 18:56</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>41372215</t>
+          <t>6434386693</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>@ilia_bel</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>13-09-2023 15:16</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>07:49</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202462021</t>
+          <t>999396575</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>@Maxx1e</t>
+          <t>@Jfp001</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14-09-2023 02:55</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>4</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>06:28</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2103591411</t>
+          <t>5977533400</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>@Arcady_Polansky</t>
+          <t>@DAwhitewill</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12-09-2023 15:41</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>3</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5344938628</t>
+          <t>5786414391</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>@AlexRealEstate1</t>
+          <t>@mvtulkin_whitewill</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>11-09-2023 17:47</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>547701100</t>
+          <t>631802006</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>@juliagolubeva13</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13-09-2023 04:31</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>3</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>210847211</t>
+          <t>282712679</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>@Yurson92</t>
+          <t>@Kos_Kolmakov</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13-09-2023 03:33</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>3</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>21:28</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5143886504</t>
+          <t>5591819567</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@dmitriibroker</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13-09-2023 11:17</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>3</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11:49</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6251408219</t>
+          <t>498867054</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>@Nick_advisor</t>
+          <t>@AzizaAkk</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13-09-2023 17:01</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
+          <t>30.09.2023</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5104075815</t>
+          <t>202462021</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>@milena_uae</t>
+          <t>@Maxx1e</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14-09-2023 01:53</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>3</v>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>02:55</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2001920888</t>
+          <t>5498350638</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>@Exclusive_Properties_Dubai</t>
+          <t>@blastonx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14-09-2023 10:01</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>3</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>04:43</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>323496337</t>
+          <t>994533674</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>@dmtrrry</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>15-09-2023 07:41</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>3</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>03:46</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>740623951</t>
+          <t>5900682625</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1616,510 +1905,640 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16-09-2023 18:16</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>3</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>03:57</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>291844618</t>
+          <t>6279145454</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>@melnikoff_oleg</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>22-09-2023 05:20</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>3</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>257090237</t>
+          <t>1074046659</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>@Danil_Prudnikov</t>
+          <t>@danyHaxyu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11-09-2023 21:18</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>2</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5707240884</t>
+          <t>73113491</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>@daleinikovawhitewill</t>
+          <t>@aaaaannn000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>13-09-2023 11:49</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5581316659</t>
+          <t>1091842607</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>@rcvje</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13-09-2023 11:54</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>2</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6372953230</t>
+          <t>5501253226</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>@dubaimt</t>
+          <t>@showmeuae</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>13-09-2023 10:36</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>2</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16:03</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>805719061</t>
+          <t>41372215</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>@Sergey_Iakimenko</t>
+          <t>@ilia_bel</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12-09-2023 13:27</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>2</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1612265687</t>
+          <t>768639657</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Andre_UAE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12-09-2023 16:20</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>2</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1638474345</t>
+          <t>5109516780</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>@mexcoool</t>
+          <t>@Polka0987</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>13-09-2023 16:41</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2</v>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16:13</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>128556638</t>
+          <t>1455733447</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>@karagebakyan</t>
+          <t>@StellaYakob</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13-09-2023 02:27</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2</v>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12:23</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6623335067</t>
+          <t>740623951</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>@nnovikov_whitewill</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12-09-2023 05:19</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>2</v>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>244344243</t>
+          <t>5581316659</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>@im_goldengate</t>
+          <t>@rcvje</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>15-09-2023 03:44</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>2</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2002134674</t>
+          <t>547701100</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>@AbbyLii</t>
+          <t>@juliagolubeva13</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>23-09-2023 08:01</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>2</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>04:31</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>506421058</t>
+          <t>2103591411</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>@idontcareunow</t>
+          <t>@Arcady_Polansky</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15-09-2023 09:38</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>2</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1885564530</t>
+          <t>210847211</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>@Dima_bb_ekb</t>
+          <t>@Yurson92</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12-09-2023 17:45</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>2</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>03:33</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>416021304</t>
+          <t>5143886504</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>@excusemyfreestyle</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21-09-2023 08:01</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>2</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>209124967</t>
+          <t>6251408219</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>@Sergii_dobryak</t>
+          <t>@Nick_advisor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20-09-2023 01:00</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>2</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1234278212</t>
+          <t>5104075815</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>@Serdar_ai</t>
+          <t>@milena_uae</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>13-09-2023 03:38</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>2</v>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>36978506</t>
+          <t>2001920888</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>@Eugenie23</t>
+          <t>@Exclusive_Properties_Dubai</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17-09-2023 07:47</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>2</v>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10:01</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>659750137</t>
+          <t>555577295</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@kate_zhdanova</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16-09-2023 06:24</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>2</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>04:51</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>472133939</t>
+          <t>323496337</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>@MishaLevel</t>
+          <t>@dmtrrry</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12-09-2023 23:49</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>2</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>07:41</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>367119960</t>
+          <t>291844618</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@melnikoff_oleg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13-09-2023 04:29</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>2</v>
+          <t>22.09.2023</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>05:20</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5400453399</t>
+          <t>1721191027</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>@aabramov_whitewill</t>
+          <t>@mikhail_slobodchikov</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13-09-2023 11:20</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>2</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1466359826</t>
+          <t>5308627935</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>@Uxairr_qurashi</t>
+          <t>@i9166661344433</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>15-09-2023 20:00</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>2</v>
+          <t>30.09.2023</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>535215760</t>
+          <t>416021304</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>@madina_abdirashidova</t>
+          <t>@excusemyfreestyle</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>18-09-2023 07:57</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
+          <t>21.09.2023</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>08:01</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5298187326</t>
+          <t>222332384</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@kkkate_kot</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13-09-2023 10:41</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2136,1357 +2555,1697 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12-09-2023 16:11</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>16:11</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>222332384</t>
+          <t>209124967</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>@kkkate_kot</t>
+          <t>@Sergii_dobryak</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12-09-2023 18:43</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
+          <t>20.09.2023</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>43636393</t>
+          <t>286874668</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>@StanislavKovalevski</t>
+          <t>@JuliaVoronovaWw</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>13-09-2023 10:41</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5695731760</t>
+          <t>6372953230</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>@real_estate_dubai_1</t>
+          <t>@dubaimt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12-09-2023 19:22</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>279064500</t>
+          <t>257090237</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>@MikhailDo</t>
+          <t>@Danil_Prudnikov</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12-09-2023 18:27</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>21:18</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>412481048</t>
+          <t>472133939</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>@KostikKostyan</t>
+          <t>@MishaLevel</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15-09-2023 08:37</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>23:49</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>286874668</t>
+          <t>36978506</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>@JuliaVoronovaWw</t>
+          <t>@Eugenie23</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12-09-2023 17:47</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>07:47</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>764965503</t>
+          <t>5707240884</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>@Viktoriya_88</t>
+          <t>@daleinikovawhitewill</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12-09-2023 17:39</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11:49</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>742717151</t>
+          <t>659750137</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>@qwertywasd11</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16-09-2023 07:36</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>499731105</t>
+          <t>380293545</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@fatinssuhada</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>25-09-2023 18:57</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>420324742</t>
+          <t>43636393</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>@olga_playlab</t>
+          <t>@StanislavKovalevski</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12-09-2023 18:14</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>380293545</t>
+          <t>1466359826</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>@fatinssuhada</t>
+          <t>@Uxairr_qurashi</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>16-09-2023 10:12</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>5498350638</t>
+          <t>764965503</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>@blastonx</t>
+          <t>@Viktoriya_88</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>13-09-2023 04:43</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5153722235</t>
+          <t>535215760</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@madina_abdirashidova</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>21-09-2023 15:10</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>1</v>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>07:57</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>320390019</t>
+          <t>1266195706</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>@top_rieltor</t>
+          <t>@ivan_estate_1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12-09-2023 19:07</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1133475672</t>
+          <t>805719061</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>@kris_dubai</t>
+          <t>@Sergey_Iakimenko</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>13-09-2023 02:05</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>1</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>171028957</t>
+          <t>412481048</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>@a1pancho</t>
+          <t>@KostikKostyan</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>13-09-2023 05:18</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>245199101</t>
+          <t>742717151</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>@Burlakovskaya</t>
+          <t>@qwertywasd11</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>13-09-2023 04:29</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>07:36</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>371983201</t>
+          <t>1612265687</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>@di_0075</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>13-09-2023 11:55</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>48879360</t>
+          <t>1638474345</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>@kirilltitenko</t>
+          <t>@mexcoool</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>13-09-2023 05:00</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>1</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>16:41</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>120500600</t>
+          <t>199615480</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>@DemidKuznetsov</t>
+          <t>@alexandraa_ab</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12-09-2023 16:10</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>1</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>06:07</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>885800064</t>
+          <t>367119960</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>@sabidamirova</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>13-09-2023 11:16</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>1</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>04:29</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1166249469</t>
+          <t>244344243</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>@mg_azk</t>
+          <t>@im_goldengate</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12-09-2023 17:30</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>1</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>03:44</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5856891117</t>
+          <t>279064500</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@MikhailDo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>24-09-2023 19:37</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>1</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18:27</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5791906482</t>
+          <t>405105848</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@kadesnikova</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>15-09-2023 06:02</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>5875309988</t>
+          <t>5967784051</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>@sergio_Real_Estates</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>13-09-2023 19:15</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>439855650</t>
+          <t>128556638</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>@tatinay</t>
+          <t>@karagebakyan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>13-09-2023 21:01</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>1</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>02:27</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1357487686</t>
+          <t>1234278212</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>@Ekatheriiina</t>
+          <t>@Serdar_ai</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12-09-2023 03:49</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>03:38</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>169451854</t>
+          <t>341570459</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>@alexvetrenko</t>
+          <t>@Dgrigorevv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12-09-2023 15:50</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>1</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5268538864</t>
+          <t>5695731760</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@real_estate_dubai_1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>14-09-2023 05:52</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>1</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5579368673</t>
+          <t>386249107</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>@ariabyi_whitewill</t>
+          <t>@kartinkatrin</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>14-09-2023 07:37</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>1</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>05:20</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1044223544</t>
+          <t>1885564530</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>@dimitry_romantsov</t>
+          <t>@Dima_bb_ekb</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12-09-2023 17:30</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1128605634</t>
+          <t>1032864262</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Fateme2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>15-09-2023 10:13</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6395776190</t>
+          <t>6623335067</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@nnovikov_whitewill</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>16-09-2023 09:33</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>05:19</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>5685755164</t>
+          <t>5298187326</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>@Fedor_buroneg</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>14-09-2023 19:29</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>1</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>91289840</t>
+          <t>196838265</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>@golubtsov77</t>
+          <t>@demian_svk</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15-09-2023 13:14</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>418756889</t>
+          <t>410761362</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@mrkonstant</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>20-09-2023 09:35</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>1</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>05:11</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1266195706</t>
+          <t>204051591</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>@ivan_estate_1</t>
+          <t>@AndreyMonakhov</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>11-09-2023 18:51</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1213188219</t>
+          <t>499954731</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>@lee_unicorn</t>
+          <t>@irinafernandes</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>15-09-2023 00:43</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>1</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>05:41</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>555577295</t>
+          <t>6384777609</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>@kate_zhdanova</t>
+          <t>@MaryS015</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>15-09-2023 04:51</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>1</v>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1908450693</t>
+          <t>499731105</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>@asselya54</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>16-09-2023 12:22</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>1</v>
+          <t>25.09.2023</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>18:57</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>768639657</t>
+          <t>5400453399</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>@Andre_UAE</t>
+          <t>@aabramov_whitewill</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>15-09-2023 17:44</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>1</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>515949236</t>
+          <t>420324742</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>@ALPO88</t>
+          <t>@olga_playlab</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>15-09-2023 18:58</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>1</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>18:14</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5461484573</t>
+          <t>2002134674</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>@vv_advisor</t>
+          <t>@AbbyLii</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>15-09-2023 19:10</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>1</v>
+          <t>23.09.2023</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>08:01</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1617907933</t>
+          <t>5875309988</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@sergio_Real_Estates</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>16-09-2023 03:40</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5945214319</t>
+          <t>171028957</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>@DubaiLedi</t>
+          <t>@a1pancho</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>17-09-2023 04:45</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>05:18</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1304701724</t>
+          <t>1133475672</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@kris_dubai</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>19-09-2023 13:20</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>02:05</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>556771380</t>
+          <t>885800064</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@sabidamirova</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>17-09-2023 09:34</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1111131188</t>
+          <t>320390019</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@top_rieltor</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12-09-2023 15:00</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5743095858</t>
+          <t>1166249469</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>@Ildus_whitewill</t>
+          <t>@mg_azk</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>18-09-2023 17:09</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>437768701</t>
+          <t>548688204</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>@tataof</t>
+          <t>@Olai_oli</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>11-09-2023 17:29</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>05:04</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>151988693</t>
+          <t>5791906482</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>@aleksei_zubenko</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>13-09-2023 11:27</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1065268516</t>
+          <t>6228150368</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>@mus7i</t>
+          <t>@elina_g1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>22-09-2023 11:23</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>18:48</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>5405642853</t>
+          <t>439855650</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@tatinay</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>21-09-2023 07:53</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>21:01</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>548688204</t>
+          <t>823368884</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>@Olai_oli</t>
+          <t>@verus_es</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>13-09-2023 05:04</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>63417436</t>
+          <t>5268538864</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>@OlegProgres</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>26-09-2023 12:02</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1036421494</t>
+          <t>5579368673</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>@gulmadina</t>
+          <t>@ariabyi_whitewill</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>22-09-2023 16:20</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>07:37</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>497293721</t>
+          <t>1128605634</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>@diana_miningbtc</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12-09-2023 20:42</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>823368884</t>
+          <t>6395776190</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>@verus_es</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12-09-2023 18:34</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6228150368</t>
+          <t>497293721</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>@elina_g1</t>
+          <t>@diana_miningbtc</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>12-09-2023 18:48</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>20:42</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>902309480</t>
+          <t>5685755164</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>@espresso37</t>
+          <t>@Fedor_buroneg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12-09-2023 17:08</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>211105311</t>
+          <t>91289840</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>@tsvetkova_m</t>
+          <t>@golubtsov77</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>22-09-2023 13:04</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6024626768</t>
+          <t>418756889</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>@alex_clickise</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>24-09-2023 17:39</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
+          <t>20.09.2023</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6019927787</t>
+          <t>1213188219</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>@sanat_buroneg</t>
+          <t>@lee_unicorn</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>15-09-2023 05:57</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>00:43</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>5707931030</t>
+          <t>151988693</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@aleksei_zubenko</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>15-09-2023 06:02</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>11:27</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1963419082</t>
+          <t>1908450693</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@asselya54</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>15-09-2023 09:36</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>533123348</t>
+          <t>1044223544</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>@irina_dubairealestate</t>
+          <t>@dimitry_romantsov</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>12-09-2023 18:07</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>554079188</t>
+          <t>515949236</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>@Marcylicious</t>
+          <t>@ALPO88</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>13-09-2023 11:15</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6198666779</t>
+          <t>1617907933</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3496,117 +4255,147 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>21-09-2023 13:28</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>03:40</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>106732994</t>
+          <t>5945214319</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>@erik_dubai</t>
+          <t>@DubaiLedi</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>12-09-2023 16:18</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>5838365459</t>
+          <t>1304701724</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>@Polisa_feihoa</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>16-09-2023 14:50</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
+          <t>19.09.2023</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>72296670</t>
+          <t>556771380</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>@tata_gusiatnikova</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>16-09-2023 18:17</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>09:34</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>160144883</t>
+          <t>5743095858</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>@CNSK154</t>
+          <t>@Ildus_whitewill</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>15-09-2023 09:36</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>521112488</t>
+          <t>1065268516</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>@olgakaliuzhnaya</t>
+          <t>@mus7i</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>17-09-2023 04:20</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
+          <t>22.09.2023</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1425081061</t>
+          <t>5405642853</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3616,537 +4405,672 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12-09-2023 18:03</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
+          <t>21.09.2023</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>07:53</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6105153977</t>
+          <t>5153722235</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>@aorlova_whitewill</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12-09-2023 19:32</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
+          <t>21.09.2023</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>76325031</t>
+          <t>63417436</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>@DmitriyVladimirov</t>
+          <t>@OlegProgres</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>13-09-2023 05:52</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>551340417</t>
+          <t>1036421494</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@gulmadina</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>22-09-2023 16:12</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
+          <t>22.09.2023</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1197401891</t>
+          <t>48879360</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>@platonov_viktor</t>
+          <t>@kirilltitenko</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>17-09-2023 04:36</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>933365951</t>
+          <t>120500600</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@DemidKuznetsov</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>13-09-2023 06:41</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1924909844</t>
+          <t>5856891117</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>@wowolga84</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>13-09-2023 01:42</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
+          <t>24.09.2023</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1003773350</t>
+          <t>1531890650</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>@WeberMsk</t>
+          <t>@NikolaT080</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>16-09-2023 05:18</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>12:49</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>5990331478</t>
+          <t>280567447</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@romaskvortsov</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>16-09-2023 06:00</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>04:57</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>102342567</t>
+          <t>5181804173</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>@NirtakDubai</t>
+          <t>@mohnad557</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16-09-2023 06:02</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>370694991</t>
+          <t>6561532395</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>@mariia_kostinboi</t>
+          <t>@VANA20012</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>13-09-2023 05:03</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>0</v>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1769563790</t>
+          <t>1284495838</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Geefcka</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>16-09-2023 07:31</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1306817271</t>
+          <t>116333542</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>@mix_oskor</t>
+          <t>@pumlos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>13-09-2023 00:32</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>02:54</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>264103852</t>
+          <t>289290422</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>@a_Mashkin</t>
+          <t>@alonaxan</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>25-09-2023 10:23</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>05:38</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2053623453</t>
+          <t>382440316</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>@muydinovf_7777</t>
+          <t>@Zvereva_Kristina</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>22-09-2023 16:59</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5665229911</t>
+          <t>965208634</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>@frolovproperty</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>18-09-2023 11:15</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6236284785</t>
+          <t>5475994695</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@alissa_private</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>17-09-2023 07:22</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>667170614</t>
+          <t>662294377</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>@eorclanstan</t>
+          <t>@ouaisalena</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>18-09-2023 12:24</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>20:04</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1833154823</t>
+          <t>5027898291</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>@stsurkan_whitewill</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>13-09-2023 18:28</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6076999686</t>
+          <t>1357487686</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Ekatheriiina</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>13-09-2023 06:25</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>03:49</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>394279206</t>
+          <t>330933124</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>@rzk7109</t>
+          <t>@shantelrima</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>15-09-2023 09:36</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>20:38</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1230907122</t>
+          <t>169451854</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>@irinahoka</t>
+          <t>@alexvetrenko</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>15-09-2023 09:44</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>332026898</t>
+          <t>374552019</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>@shishkingo</t>
+          <t>@vera_tiknonova</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12-09-2023 18:00</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>206901017</t>
+          <t>467059028</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>@IrinaVol</t>
+          <t>@aleks_tgbv</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>16-09-2023 07:41</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>5494273693</t>
+          <t>35858084</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>@hitacher</t>
+          <t>@kazarjanm</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>25-09-2023 08:04</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>412763717</t>
+          <t>306985780</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>@pumma_agent</t>
+          <t>@bestinvest111</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12-09-2023 18:36</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>06:58</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>451950427</t>
+          <t>837508648</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>@marie_arrr</t>
+          <t>@Anton_Moskalev</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>14-09-2023 03:27</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>12:16</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>825978149</t>
+          <t>1111131188</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4156,137 +5080,172 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>13-09-2023 05:26</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>698370154</t>
+          <t>437768701</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>@resale1_admin</t>
+          <t>@tataof</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>23-09-2023 09:14</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>233008478</t>
+          <t>245199101</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>@choschao</t>
+          <t>@Burlakovskaya</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>17-09-2023 13:18</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>04:29</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>204434037</t>
+          <t>371983201</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>@ururur01</t>
+          <t>@di_0075</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>13-09-2023 05:56</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>5751185564</t>
+          <t>1003303374</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>@AlexUAE77</t>
+          <t>@SaeedEbdah</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>14-09-2023 09:06</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1656006343</t>
+          <t>6198666779</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>@AK_SUMMER_904</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>14-09-2023 09:52</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
+          <t>21.09.2023</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6056965401</t>
+          <t>554079188</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@Marcylicious</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>18-09-2023 04:52</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1826431857</t>
+          <t>551340417</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4296,370 +5255,2965 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>23-09-2023 13:47</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
+          <t>22.09.2023</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>16:12</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>148246042</t>
+          <t>365174098</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>@EduardRealEstate</t>
+          <t>@ASMANKIN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12-09-2023 14:58</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>06:45</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>408179696</t>
+          <t>6076999686</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>@nonna</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>14-09-2023 11:01</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1003303374</t>
+          <t>2053623453</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>@SaeedEbdah</t>
+          <t>@muydinovf_7777</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>14-09-2023 11:20</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
+          <t>22.09.2023</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>535823192</t>
+          <t>62262973</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>@Denys777feo</t>
+          <t>@oksanatf</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>24-09-2023 08:25</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>07:11</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>6262534657</t>
+          <t>408179696</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@nonna</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>14-09-2023 12:30</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1570013678</t>
+          <t>698370154</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@resale1_admin</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>15-09-2023 10:27</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
+          <t>23.09.2023</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>09:14</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>197725660</t>
+          <t>1826431857</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>@sakhatsky</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>13-09-2023 04:59</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
+          <t>23.09.2023</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5808412492</t>
+          <t>535823192</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>@maksim_buroneg</t>
+          <t>@Denys777feo</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>14-09-2023 19:19</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
+          <t>24.09.2023</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>278119409</t>
+          <t>6024626768</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>@juliaaks777</t>
+          <t>@alex_clickise</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>25-09-2023 23:25</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
+          <t>24.09.2023</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1952735754</t>
+          <t>6313997454</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>@alina_adikova</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>20-09-2023 19:28</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>07:19</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>836611563</t>
+          <t>825978149</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>@Elvira_realestate_Dubai</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>15-09-2023 12:54</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>05:26</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1905894052</t>
+          <t>5494273693</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>@oksi_dubai</t>
+          <t>@hitacher</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12-09-2023 17:12</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
+          <t>25.09.2023</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>332467260</t>
+          <t>278119409</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>@aalexaar</t>
+          <t>@juliaaks777</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12-09-2023 16:00</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
+          <t>25.09.2023</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>23:25</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1235165615</t>
+          <t>6056965401</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>@Anna_Shibko</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>12-09-2023 21:18</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>04:52</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1225803452</t>
+          <t>533123348</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>@lebedkina1</t>
+          <t>@irina_dubairealestate</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>21-09-2023 05:47</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>860858307</t>
+          <t>1235165615</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>@vova_aaaa</t>
+          <t>@Anna_Shibko</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15-09-2023 14:04</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>21:18</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2046761652</t>
+          <t>6016127176</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>@KybuHka</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>15-09-2023 14:49</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>15:02</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
+          <t>6537384877</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>@SmmSmartStart</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>6621840922</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>@shkutane</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>16:13</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>941417477</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>@kolinss1993</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>16:13</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>332467260</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>@aalexaar</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>197725660</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>@sakhatsky</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>04:59</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1425081061</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1656006343</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>@AK_SUMMER_904</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>5121199422</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>@olgae3</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>965138736</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>@Kineup3</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>5858175275</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>@Limastik</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1897151680</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>@rozatboy</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>5674026762</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>@dasha5558888</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>07:54</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>5843988980</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>@Frion140</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>17:13</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1723606304</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>@VAD175V</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>138754933</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>@ivanpopov42</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>08:21</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1531449446</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>@prolongating1806</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1495752789</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>@KlimZ1</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>18:08</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>5469039509</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>@denis070482</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>3933966</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>@Sunnat3272</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>5451420372</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>@Rev1valCastle</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>812492796</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>@popodozz72</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>5890725575</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>@Alex112s</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>5730293211</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>@theebest701</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>41019279</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>@katrina_sm1</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>6112378064</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>@G_Ala52</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>5435413704</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>@petranne4ka</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>20:27</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>6197478985</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>@tema314</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>5368685153</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>@proxor76</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>21:43</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>5503317006</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>@albert2802</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>26.09.2023</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>21:48</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1040003959</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>@Elena_Favorite</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>00:26</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1349279878</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>@LINAR12345</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>00:29</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1318221111</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>@kryl70</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>01:22</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>676587603</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>@francyz33</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>01:22</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>5754225846</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>@Fatima_vip</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>01:58</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>6191993319</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>@kalinaserenya</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>02:35</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>6128965991</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>@CHIJYIK</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>02:39</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>148246042</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>@EduardRealEstate</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>5751185564</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>@AlexUAE77</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1514084802</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>@TekoPhil</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>14:33</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>888631442</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>@bakhad1rovnaa_M</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>27.09.2023</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>233008478</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>@choschao</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>451950427</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>@marie_arrr</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>03:27</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>351065005</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>@the_muser</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>30.09.2023</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>332026898</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>@shishkingo</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>412763717</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>@pumma_agent</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>97969137</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>@gquater</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>206901017</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>@IrinaVol</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>07:41</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1230907122</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>@irinahoka</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1833154823</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>@stsurkan_whitewill</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>5940328239</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>@ekochenova_whitewill</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>20:42</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>421733735</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>@Gusevbm</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>394279206</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>@rzk7109</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>6282909907</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>@olga_lich_ww</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>30.09.2023</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>5317648930</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>@call_me_nii</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1941918301</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>@gk_dubai</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>933365951</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>06:41</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1924909844</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>@wowolga84</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>01:42</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>273761148</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>@maksim_plotnikov</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>20:49</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>76325031</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>@DmitriyVladimirov</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>5446618515</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>@di_realestate</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>21:11</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>5707931030</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>728744975</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>@zakryzhevskiy</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>21:17</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>6019927787</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>@sanat_buroneg</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>05:57</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1963419082</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>6105153977</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>@aorlova_whitewill</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
           <t>208991581</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>@VictoriaGluschenko</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>15-09-2023 15:33</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>15:33</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>5838365459</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>@Polisa_feihoa</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>72296670</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>@tata_gusiatnikova</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>6564790190</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>@nyartist</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>28.09.2023</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>22:11</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>521112488</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>@olgakaliuzhnaya</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>04:20</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>902309480</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>@espresso37</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>204434037</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>@ururur01</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>05:56</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2046761652</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>@KybuHka</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>14:49</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>1197401891</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>@platonov_viktor</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>04:36</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>860858307</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>@vova_aaaa</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>247064501</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>@Pomorleo</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>01:36</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1003773350</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>@WeberMsk</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>05:18</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>5990331478</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>102342567</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>@NirtakDubai</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>06:02</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1905894052</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>@oksi_dubai</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1769563790</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>16.09.2023</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>07:31</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>346408196</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>@GalinaRaskova</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>01:42</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>264103852</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>@a_Mashkin</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>25.09.2023</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>10:23</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>5533187427</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>@vitaly_real</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>04:34</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>5665229911</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>@frolovproperty</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>6236284785</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>17.09.2023</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>07:22</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>667170614</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>@eorclanstan</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>18.09.2023</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>836611563</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>@Elvira_realestate_Dubai</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>5808412492</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>@maksim_buroneg</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>442064122</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>@AlexBotvinko</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>04:48</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>370694991</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>@mariia_kostinboi</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>05:03</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>6179374602</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>@evorobeva_whitewill</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>30.09.2023</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>03:16</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1570013678</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>106732994</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>@erik_dubai</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>6262534657</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>14.09.2023</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>160144883</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>@CNSK154</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>15.09.2023</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1952735754</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>20.09.2023</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1306817271</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>@mix_oskor</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>13.09.2023</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>00:32</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1225803452</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>@lebedkina1</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>21.09.2023</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>05:47</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>5872333289</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>@edolgopol_whitewill</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>29.09.2023</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>211105311</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>@tsvetkova_m</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>22.09.2023</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>13:04</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
         <v>0</v>
       </c>
     </row>
